--- a/src/test/resources/exelForTest.xlsx
+++ b/src/test/resources/exelForTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="16515" windowHeight="8505"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,42 +16,186 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>tony.tester@gmail.com</t>
-  </si>
-  <si>
-    <t>master</t>
-  </si>
-  <si>
-    <t>Nick Newbie </t>
-  </si>
-  <si>
-    <t>nick.newbie@gmail.com</t>
-  </si>
-  <si>
-    <t>starter</t>
-  </si>
-  <si>
-    <t>intermediate</t>
-  </si>
-  <si>
-    <t>ian.intermediate@gmail.com</t>
-  </si>
-  <si>
-    <t>Ian Intermediate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tony Tester     </t>
-  </si>
-  <si>
-    <t>EMAIL_ADDRESS</t>
-  </si>
-  <si>
-    <t>PURCHASED_PACKAGE</t>
-  </si>
-  <si>
-    <t>NAME</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+  <si>
+    <t>رقم الملف</t>
+  </si>
+  <si>
+    <t>رقم أمانة المديرية</t>
+  </si>
+  <si>
+    <t>الضحية</t>
+  </si>
+  <si>
+    <t>المتهم</t>
+  </si>
+  <si>
+    <t>الموضوع</t>
+  </si>
+  <si>
+    <t>الجهة القضائية المختصة</t>
+  </si>
+  <si>
+    <t>الإدارة المعنية</t>
+  </si>
+  <si>
+    <t>18/001</t>
+  </si>
+  <si>
+    <t>18/004</t>
+  </si>
+  <si>
+    <t>الوكيل القضائي للخزينة</t>
+  </si>
+  <si>
+    <t>غمري عبد الرحمان</t>
+  </si>
+  <si>
+    <t>التبليغ عن جريمة وهمية</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سيدي عقبة</t>
+  </si>
+  <si>
+    <t>ارسالية الأستاذ صادقي حكيم      بتاريخ 2017/12/31</t>
+  </si>
+  <si>
+    <t>18/002</t>
+  </si>
+  <si>
+    <t>18/117</t>
+  </si>
+  <si>
+    <t>فرقاش سناء</t>
+  </si>
+  <si>
+    <t>الوناس محمد الأمين</t>
+  </si>
+  <si>
+    <t>اهانة مع التصريح الكاذب و الإدلاء بوقائع غير صحيحة</t>
+  </si>
+  <si>
+    <t>سيدي بلعباس</t>
+  </si>
+  <si>
+    <t>محضــر م ع ا و         رقــــــم الملف 17/3346 رقم الارسال 18/684</t>
+  </si>
+  <si>
+    <t>18/003</t>
+  </si>
+  <si>
+    <t>18/145</t>
+  </si>
+  <si>
+    <t>زراق حفيظ</t>
+  </si>
+  <si>
+    <t>اهانة قاضي</t>
+  </si>
+  <si>
+    <t>المحكمة العليا</t>
+  </si>
+  <si>
+    <t>مذكرة تدعيم الطعن بالنقض</t>
+  </si>
+  <si>
+    <t>18/309</t>
+  </si>
+  <si>
+    <t>تاني مالك</t>
+  </si>
+  <si>
+    <t>حميدي عبد القادر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محاولة الإعتداء و اهانة </t>
+  </si>
+  <si>
+    <t>بني سليمان</t>
+  </si>
+  <si>
+    <t>ارسالية الأستاذ خليل ياسين بتاريخ 2018/01/10</t>
+  </si>
+  <si>
+    <t>18/005</t>
+  </si>
+  <si>
+    <t>18/60</t>
+  </si>
+  <si>
+    <t>لمو الحاج                  بلعيد مصطفى           حمار امحمد</t>
+  </si>
+  <si>
+    <t>عمور عبد القادر</t>
+  </si>
+  <si>
+    <t>اهانة هيئة نظامية</t>
+  </si>
+  <si>
+    <t>برج بونعامة</t>
+  </si>
+  <si>
+    <t>محضــر م ع ا و         رقــــــم الملف 17/3223 رقم الارسال 18/372</t>
+  </si>
+  <si>
+    <t>18/006</t>
+  </si>
+  <si>
+    <t>18/61</t>
+  </si>
+  <si>
+    <t>بن راضي عبد الحميد</t>
+  </si>
+  <si>
+    <t>طازقة محمد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اهانة </t>
+  </si>
+  <si>
+    <t>مروانة</t>
+  </si>
+  <si>
+    <t>محضــر م ع ا و         رقــــــم الملف 17/3363 رقم الارسال 18/373</t>
+  </si>
+  <si>
+    <t>18/007</t>
+  </si>
+  <si>
+    <t>18/67</t>
+  </si>
+  <si>
+    <t>يونسي محمد</t>
+  </si>
+  <si>
+    <t>مرامرية بوغالم</t>
+  </si>
+  <si>
+    <t>اهانة بالسب و الشتم و التهديد متبوع بالتنازل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تبسة </t>
+  </si>
+  <si>
+    <t>محضــر م ع ا و         رقــــــم الملف 2018/24 رقم الارسال 18/379</t>
+  </si>
+  <si>
+    <t>18/008</t>
+  </si>
+  <si>
+    <t>18/69</t>
+  </si>
+  <si>
+    <t>رحماني سيد احمد</t>
+  </si>
+  <si>
+    <t>لعشيبي عبد الحق</t>
+  </si>
+  <si>
+    <t>القليعة</t>
+  </si>
+  <si>
+    <t>محضــر م ع ا و         رقــــــم الملف 17/2970 رقم الارسال 18/381</t>
   </si>
 </sst>
 </file>
@@ -68,27 +212,26 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,12 +240,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -110,24 +259,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -417,66 +613,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="56.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="131.25">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="150">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="75">
+      <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+    <row r="5" spans="1:7" ht="131.25">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
+    <row r="6" spans="1:7" ht="150">
+      <c r="A6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
+    <row r="7" spans="1:7" ht="150">
+      <c r="A7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="150">
+      <c r="A8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="150">
+      <c r="A9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G1:G9">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="كشف اتعاب + حكم ">
+      <formula>NOT(ISERROR(SEARCH("كشف اتعاب + حكم ",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/exelForTest.xlsx
+++ b/src/test/resources/exelForTest.xlsx
@@ -12,197 +12,125 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
-  <si>
-    <t>رقم الملف</t>
-  </si>
-  <si>
-    <t>رقم أمانة المديرية</t>
-  </si>
-  <si>
-    <t>الضحية</t>
-  </si>
-  <si>
-    <t>المتهم</t>
-  </si>
-  <si>
-    <t>الموضوع</t>
-  </si>
-  <si>
-    <t>الجهة القضائية المختصة</t>
-  </si>
-  <si>
-    <t>الإدارة المعنية</t>
-  </si>
-  <si>
-    <t>18/001</t>
-  </si>
-  <si>
-    <t>18/004</t>
-  </si>
-  <si>
-    <t>الوكيل القضائي للخزينة</t>
-  </si>
-  <si>
-    <t>غمري عبد الرحمان</t>
-  </si>
-  <si>
-    <t>التبليغ عن جريمة وهمية</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> سيدي عقبة</t>
-  </si>
-  <si>
-    <t>ارسالية الأستاذ صادقي حكيم      بتاريخ 2017/12/31</t>
-  </si>
-  <si>
-    <t>18/002</t>
-  </si>
-  <si>
-    <t>18/117</t>
-  </si>
-  <si>
-    <t>فرقاش سناء</t>
-  </si>
-  <si>
-    <t>الوناس محمد الأمين</t>
-  </si>
-  <si>
-    <t>اهانة مع التصريح الكاذب و الإدلاء بوقائع غير صحيحة</t>
-  </si>
-  <si>
-    <t>سيدي بلعباس</t>
-  </si>
-  <si>
-    <t>محضــر م ع ا و         رقــــــم الملف 17/3346 رقم الارسال 18/684</t>
-  </si>
-  <si>
-    <t>18/003</t>
-  </si>
-  <si>
-    <t>18/145</t>
-  </si>
-  <si>
-    <t>زراق حفيظ</t>
-  </si>
-  <si>
-    <t>اهانة قاضي</t>
-  </si>
-  <si>
-    <t>المحكمة العليا</t>
-  </si>
-  <si>
-    <t>مذكرة تدعيم الطعن بالنقض</t>
-  </si>
-  <si>
-    <t>18/309</t>
-  </si>
-  <si>
-    <t>تاني مالك</t>
-  </si>
-  <si>
-    <t>حميدي عبد القادر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">محاولة الإعتداء و اهانة </t>
-  </si>
-  <si>
-    <t>بني سليمان</t>
-  </si>
-  <si>
-    <t>ارسالية الأستاذ خليل ياسين بتاريخ 2018/01/10</t>
-  </si>
-  <si>
-    <t>18/005</t>
-  </si>
-  <si>
-    <t>18/60</t>
-  </si>
-  <si>
-    <t>لمو الحاج                  بلعيد مصطفى           حمار امحمد</t>
-  </si>
-  <si>
-    <t>عمور عبد القادر</t>
-  </si>
-  <si>
-    <t>اهانة هيئة نظامية</t>
-  </si>
-  <si>
-    <t>برج بونعامة</t>
-  </si>
-  <si>
-    <t>محضــر م ع ا و         رقــــــم الملف 17/3223 رقم الارسال 18/372</t>
-  </si>
-  <si>
-    <t>18/006</t>
-  </si>
-  <si>
-    <t>18/61</t>
-  </si>
-  <si>
-    <t>بن راضي عبد الحميد</t>
-  </si>
-  <si>
-    <t>طازقة محمد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اهانة </t>
-  </si>
-  <si>
-    <t>مروانة</t>
-  </si>
-  <si>
-    <t>محضــر م ع ا و         رقــــــم الملف 17/3363 رقم الارسال 18/373</t>
-  </si>
-  <si>
-    <t>18/007</t>
-  </si>
-  <si>
-    <t>18/67</t>
-  </si>
-  <si>
-    <t>يونسي محمد</t>
-  </si>
-  <si>
-    <t>مرامرية بوغالم</t>
-  </si>
-  <si>
-    <t>اهانة بالسب و الشتم و التهديد متبوع بالتنازل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تبسة </t>
-  </si>
-  <si>
-    <t>محضــر م ع ا و         رقــــــم الملف 2018/24 رقم الارسال 18/379</t>
-  </si>
-  <si>
-    <t>18/008</t>
-  </si>
-  <si>
-    <t>18/69</t>
-  </si>
-  <si>
-    <t>رحماني سيد احمد</t>
-  </si>
-  <si>
-    <t>لعشيبي عبد الحق</t>
-  </si>
-  <si>
-    <t>القليعة</t>
-  </si>
-  <si>
-    <t>محضــر م ع ا و         رقــــــم الملف 17/2970 رقم الارسال 18/381</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>n1</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>n4</t>
+  </si>
+  <si>
+    <t>directionNumber</t>
+  </si>
+  <si>
+    <t>dn1</t>
+  </si>
+  <si>
+    <t>dn2</t>
+  </si>
+  <si>
+    <t>dn3</t>
+  </si>
+  <si>
+    <t>dn4</t>
+  </si>
+  <si>
+    <t>victims</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>v3</t>
+  </si>
+  <si>
+    <t>v4</t>
+  </si>
+  <si>
+    <t>guilties</t>
+  </si>
+  <si>
+    <t>g1
+g12</t>
+  </si>
+  <si>
+    <t>g2</t>
+  </si>
+  <si>
+    <t>g3</t>
+  </si>
+  <si>
+    <t>g4</t>
+  </si>
+  <si>
+    <t>v2
+v22</t>
+  </si>
+  <si>
+    <t>Offence</t>
+  </si>
+  <si>
+    <t>o1</t>
+  </si>
+  <si>
+    <t>o2</t>
+  </si>
+  <si>
+    <t>o3</t>
+  </si>
+  <si>
+    <t>o4</t>
+  </si>
+  <si>
+    <t>court</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>d3</t>
+  </si>
+  <si>
+    <t>d4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,8 +152,14 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -246,7 +180,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,44 +212,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -613,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G9"/>
+      <selection activeCell="G1" sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -625,216 +543,125 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="37.5">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="37.5">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19.5">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19.5">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="131.25">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="150">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="75">
-      <c r="A4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="131.25">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="F5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="150">
-      <c r="A6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="150">
-      <c r="A7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="150">
-      <c r="A8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="150">
-      <c r="A9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:G9">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="كشف اتعاب + حكم ">
+  <conditionalFormatting sqref="G1:G5">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="كشف اتعاب + حكم ">
       <formula>NOT(ISERROR(SEARCH("كشف اتعاب + حكم ",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
